--- a/Statistical analyses/Tukey posthoc/C_O_stretching/C_O_stretching, Vegetation, groups, annotated.xlsx
+++ b/Statistical analyses/Tukey posthoc/C_O_stretching/C_O_stretching, Vegetation, groups, annotated.xlsx
@@ -22,10 +22,10 @@
     <t>labels</t>
   </si>
   <si>
+    <t>CSS</t>
+  </si>
+  <si>
     <t>Grassland</t>
-  </si>
-  <si>
-    <t>Shrub</t>
   </si>
   <si>
     <t>a</t>
